--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927710.175690293</v>
+        <v>2925138.221172388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>176.9102945984803</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712282</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.33159926298182</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>19.45240097060619</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>275.4805812731088</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955259</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686275</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784702</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763367</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2287.245646591693</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2033.483861229785</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.420973886214</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>854.9003034538785</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>485.9377865134667</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>127.6720879067162</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>127.6720879067162</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>120.7265871575128</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>106.8031830961037</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>106.8031830961037</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.500201148924</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2677.500201148924</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2346.437313805353</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.668658535239</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.202900274159</v>
+        <v>1245.03963542969</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>854.9003034538785</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.94416071721</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.94416071721</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1161.155908118966</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>750.1700033293582</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>332.2061952275451</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781332</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,7 +4896,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782915</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038302</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128889</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5762,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,22 +7731,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187565</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.2124683418</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442555</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577084</v>
+        <v>944372.777757709</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670387</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670467</v>
+        <v>5067.59260167036</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670423</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670422</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670414</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670426</v>
+        <v>5067.592601670422</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670414</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670414</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-196532.0030676522</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468925</v>
+        <v>393435.8761468926</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468923</v>
+        <v>393435.8761468926</v>
       </c>
       <c r="E6" t="n">
-        <v>-384666.9554390309</v>
+        <v>-384701.6933644671</v>
       </c>
       <c r="F6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.0843932424</v>
       </c>
       <c r="G6" t="n">
-        <v>559705.8223186773</v>
+        <v>559671.0843932421</v>
       </c>
       <c r="H6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.0843932423</v>
       </c>
       <c r="I6" t="n">
-        <v>559705.8223186777</v>
+        <v>559671.0843932423</v>
       </c>
       <c r="J6" t="n">
-        <v>383282.6031260845</v>
+        <v>383247.8652006489</v>
       </c>
       <c r="K6" t="n">
-        <v>559705.8223186776</v>
+        <v>559671.084393242</v>
       </c>
       <c r="L6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.084393242</v>
       </c>
       <c r="M6" t="n">
-        <v>435497.311610619</v>
+        <v>435462.5736851834</v>
       </c>
       <c r="N6" t="n">
-        <v>559705.8223186772</v>
+        <v>559671.0843932423</v>
       </c>
       <c r="O6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="P6" t="n">
-        <v>559705.8223186774</v>
+        <v>559671.0843932421</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.53802575917749</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657568</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>99.59971698187942</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>196.9959193870516</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.857815776226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>48.44219149124837</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094189</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.2331161620402</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.10924786597401e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716334</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629491</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>57.6594740049667</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
